--- a/Web_Pizzaria.xlsx
+++ b/Web_Pizzaria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дмитрий\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razvald\OneDrive\Документы\Документы\Web_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7D196-D51E-454D-A593-2C589A5042EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B1947A-B390-47DD-9830-0EF99F1016EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D540D0AE-6549-43C7-BD5F-1EB8004378AD}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D540D0AE-6549-43C7-BD5F-1EB8004378AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Администратор</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>as3r</t>
+  </si>
+  <si>
+    <t>teev</t>
+  </si>
+  <si>
+    <t>a64g</t>
   </si>
 </sst>
 </file>
@@ -130,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -173,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,16 +504,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD80B61-B77F-46D9-9C44-3369C5BF20E8}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -522,11 +534,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -536,11 +548,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -555,14 +567,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B572B5B9-4EDE-41FC-89F2-8C354553C6B7}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -602,13 +614,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -628,7 +640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -645,7 +657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -676,13 +688,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -765,12 +777,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -842,9 +854,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
